--- a/Daily Health Checkup/EQUIP and EWS oozie jobs status dashboard report - July 2020.xlsx
+++ b/Daily Health Checkup/EQUIP and EWS oozie jobs status dashboard report - July 2020.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sivakumar\TechM-Nissan\Daily Health Checkup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="July 01" sheetId="1" r:id="rId1"/>
+    <sheet name="July 02" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="129">
   <si>
     <t>Daily Equip Oozie jobs status Dashboard Report</t>
   </si>
@@ -373,12 +374,63 @@
   <si>
     <t>Failed more than one time</t>
   </si>
+  <si>
+    <t>Stopped/Not started/Not running</t>
+  </si>
+  <si>
+    <t>Consumer Affairs</t>
+  </si>
+  <si>
+    <t>EQUIP Monitoring &amp; Ingest</t>
+  </si>
+  <si>
+    <t>Incident Rate</t>
+  </si>
+  <si>
+    <t>EWS-DRIVE-prjct-Solr-Indexing-Daily-Prd-wf</t>
+  </si>
+  <si>
+    <t>EWS-DRIVE-tr-Solr-Indexing-Daily-Prd-wf</t>
+  </si>
+  <si>
+    <t>Daily DBSRO Oozie jobs status Dashboard Report</t>
+  </si>
+  <si>
+    <t>dbsro-wf</t>
+  </si>
+  <si>
+    <t>DBSRO</t>
+  </si>
+  <si>
+    <t>EWS</t>
+  </si>
+  <si>
+    <t>EQUIP-Materialized-Views-BDE-STG-wf</t>
+  </si>
+  <si>
+    <t>EQUIP-Gears-3.0-Adhoc-BDE-STG-wf</t>
+  </si>
+  <si>
+    <t>QCS-survey-Ingest-Fullload-Daily-BDE-STG-wf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QCS-survey-Ingest-Incremental-Daily-BDE-STG-wf </t>
+  </si>
+  <si>
+    <t>EQUIP-Materialized-Views-BDE-PRD-wf</t>
+  </si>
+  <si>
+    <t>QCS-survey-Ingest-Fullload-Daily-BDE-PRD-wf</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,8 +503,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,8 +557,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -583,6 +661,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -592,14 +681,8 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -610,13 +693,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,13 +701,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,6 +708,50 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
@@ -924,10 +1037,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,781 +1055,794 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="8"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="14"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="14"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="15"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="7"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="7"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="7"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="32"/>
+      <c r="B38" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="5" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+      <c r="B39" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="5" t="s">
+      <c r="D40" s="10"/>
+      <c r="E40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="5" t="s">
+      <c r="D41" s="10"/>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18" t="s">
+      <c r="D42" s="10"/>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C43" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="5" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="5" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="5" t="s">
+      <c r="D45" s="11"/>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="32"/>
+      <c r="B46" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C46" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="5" t="s">
+      <c r="D47" s="10"/>
+      <c r="E47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+      <c r="B48" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="7" t="s">
+      <c r="D48" s="10"/>
+      <c r="E48" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="5" t="s">
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18" t="s">
+      <c r="D49" s="10"/>
+      <c r="E49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C50" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="5" t="s">
+      <c r="D50" s="10"/>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C51" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="5" t="s">
+      <c r="D51" s="10"/>
+      <c r="E51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C52" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="5" t="s">
+      <c r="D52" s="10"/>
+      <c r="E52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="32"/>
+      <c r="B53" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C53" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="5" t="s">
+      <c r="D53" s="10"/>
+      <c r="E53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C54" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
-        <v>108</v>
+      <c r="D54" s="17"/>
+      <c r="E54" s="18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="21"/>
+      <c r="E56" s="13"/>
       <c r="F56" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E57" s="22"/>
+      <c r="E57" s="14"/>
       <c r="F57" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E58" s="23"/>
+      <c r="E58" s="15"/>
       <c r="F58" t="s">
         <v>111</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="19"/>
+      <c r="F59" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A35:E54">
+    <sortCondition ref="B35:B54"/>
+  </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A35:A54"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A32:F33"/>
-    <mergeCell ref="A35:A53"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
@@ -1726,4 +1853,936 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="34"/>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34"/>
+      <c r="B41" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
+      <c r="B42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34"/>
+      <c r="B43" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="34"/>
+      <c r="B44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="34"/>
+      <c r="B45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34"/>
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="34"/>
+      <c r="B47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="34"/>
+      <c r="B48" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="34"/>
+      <c r="B49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="34"/>
+      <c r="B50" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="34"/>
+      <c r="B51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="34"/>
+      <c r="B52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="34"/>
+      <c r="B53" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="34"/>
+      <c r="B54" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="34"/>
+      <c r="B55" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="34"/>
+      <c r="B56" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="34"/>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="34"/>
+      <c r="B58" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="30"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="13"/>
+      <c r="F69" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="14"/>
+      <c r="F70" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="15"/>
+      <c r="F71" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="19"/>
+      <c r="F72" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A4:F31">
+    <sortCondition ref="A4:A30"/>
+    <sortCondition ref="B4:B30"/>
+  </sortState>
+  <mergeCells count="12">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A60:F61"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A37:A58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Daily Health Checkup/EQUIP and EWS oozie jobs status dashboard report - July 2020.xlsx
+++ b/Daily Health Checkup/EQUIP and EWS oozie jobs status dashboard report - July 2020.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="July 01" sheetId="1" r:id="rId1"/>
     <sheet name="July 02" sheetId="2" r:id="rId2"/>
+    <sheet name="July 03" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="129">
   <si>
     <t>Daily Equip Oozie jobs status Dashboard Report</t>
   </si>
@@ -681,7 +682,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -725,6 +726,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,20 +750,11 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1055,22 +1059,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1093,7 +1097,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1109,7 +1113,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1123,7 +1127,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1137,7 +1141,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1151,7 +1155,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1167,7 +1171,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1181,7 +1185,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1195,7 +1199,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1225,7 +1229,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1241,7 +1245,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
@@ -1255,7 +1259,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1271,7 +1275,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
@@ -1285,7 +1289,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1299,7 +1303,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1313,7 +1317,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="30" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1329,7 +1333,7 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
@@ -1375,7 +1379,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1391,7 +1395,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="3" t="s">
         <v>56</v>
       </c>
@@ -1405,7 +1409,7 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="3" t="s">
         <v>58</v>
       </c>
@@ -1419,7 +1423,7 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="3" t="s">
         <v>59</v>
       </c>
@@ -1465,7 +1469,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1481,7 +1485,7 @@
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="3" t="s">
         <v>67</v>
       </c>
@@ -1496,22 +1500,22 @@
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1534,7 +1538,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1550,7 +1554,7 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="3" t="s">
         <v>106</v>
       </c>
@@ -1564,7 +1568,7 @@
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="3" t="s">
         <v>108</v>
       </c>
@@ -1574,7 +1578,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="19" t="s">
         <v>72</v>
       </c>
@@ -1588,7 +1592,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="13" t="s">
         <v>104</v>
       </c>
@@ -1602,7 +1606,7 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -1616,7 +1620,7 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
@@ -1630,7 +1634,7 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="3" t="s">
         <v>78</v>
       </c>
@@ -1644,7 +1648,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="19" t="s">
         <v>80</v>
       </c>
@@ -1658,7 +1662,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="3" t="s">
         <v>82</v>
       </c>
@@ -1672,7 +1676,7 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="3" t="s">
         <v>84</v>
       </c>
@@ -1686,7 +1690,7 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="13" t="s">
         <v>86</v>
       </c>
@@ -1700,7 +1704,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="19" t="s">
         <v>88</v>
       </c>
@@ -1714,7 +1718,7 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="3" t="s">
         <v>90</v>
       </c>
@@ -1728,7 +1732,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="3" t="s">
         <v>92</v>
       </c>
@@ -1742,7 +1746,7 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="19" t="s">
         <v>94</v>
       </c>
@@ -1756,7 +1760,7 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="3" t="s">
         <v>96</v>
       </c>
@@ -1770,7 +1774,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="3" t="s">
         <v>98</v>
       </c>
@@ -1784,7 +1788,7 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="3" t="s">
         <v>100</v>
       </c>
@@ -1798,7 +1802,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="3" t="s">
         <v>102</v>
       </c>
@@ -1860,7 +1864,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1876,22 +1880,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -1914,7 +1918,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1930,7 +1934,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1944,7 +1948,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="30" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1960,7 +1964,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="20" t="s">
         <v>22</v>
       </c>
@@ -1974,7 +1978,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1988,7 +1992,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -2002,7 +2006,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -2018,7 +2022,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
@@ -2032,7 +2036,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -2046,7 +2050,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
@@ -2076,7 +2080,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -2089,12 +2093,12 @@
       <c r="E15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="27" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
@@ -2108,7 +2112,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="3" t="s">
         <v>126</v>
       </c>
@@ -2122,7 +2126,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="30" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2138,7 +2142,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="20" t="s">
         <v>44</v>
       </c>
@@ -2168,7 +2172,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2184,7 +2188,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
@@ -2198,7 +2202,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
@@ -2212,7 +2216,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
@@ -2242,7 +2246,7 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="30" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2258,7 +2262,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="20" t="s">
         <v>64</v>
       </c>
@@ -2272,7 +2276,7 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2288,7 +2292,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -2302,7 +2306,7 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -2316,7 +2320,7 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
@@ -2349,22 +2353,22 @@
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2387,7 +2391,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="35" t="s">
         <v>121</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2403,7 +2407,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="3" t="s">
         <v>106</v>
       </c>
@@ -2417,7 +2421,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="3" t="s">
         <v>108</v>
       </c>
@@ -2429,7 +2433,7 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="3" t="s">
         <v>116</v>
       </c>
@@ -2441,7 +2445,7 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="16" t="s">
         <v>117</v>
       </c>
@@ -2453,7 +2457,7 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="19" t="s">
         <v>72</v>
       </c>
@@ -2467,7 +2471,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="20" t="s">
         <v>104</v>
       </c>
@@ -2481,7 +2485,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="3" t="s">
         <v>74</v>
       </c>
@@ -2495,7 +2499,7 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="3" t="s">
         <v>76</v>
       </c>
@@ -2509,7 +2513,7 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="3" t="s">
         <v>78</v>
       </c>
@@ -2523,7 +2527,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="19" t="s">
         <v>80</v>
       </c>
@@ -2537,7 +2541,7 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="16" t="s">
         <v>82</v>
       </c>
@@ -2551,7 +2555,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="3" t="s">
         <v>84</v>
       </c>
@@ -2565,7 +2569,7 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="20" t="s">
         <v>86</v>
       </c>
@@ -2579,7 +2583,7 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="19" t="s">
         <v>88</v>
       </c>
@@ -2593,7 +2597,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="3" t="s">
         <v>90</v>
       </c>
@@ -2607,7 +2611,7 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="16" t="s">
         <v>92</v>
       </c>
@@ -2621,7 +2625,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="21" t="s">
         <v>94</v>
       </c>
@@ -2635,7 +2639,7 @@
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
+      <c r="A55" s="36"/>
       <c r="B55" s="20" t="s">
         <v>96</v>
       </c>
@@ -2649,7 +2653,7 @@
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="13" t="s">
         <v>98</v>
       </c>
@@ -2662,7 +2666,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
+      <c r="A57" s="36"/>
       <c r="B57" s="3" t="s">
         <v>100</v>
       </c>
@@ -2675,7 +2679,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="20" t="s">
         <v>102</v>
       </c>
@@ -2688,22 +2692,22 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="30"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="30"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2769,6 +2773,11 @@
     <sortCondition ref="B4:B30"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A60:F61"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A37:A58"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A4:A5"/>
@@ -2776,11 +2785,934 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A60:F61"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="36"/>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
+      <c r="B41" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
+      <c r="B42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
+      <c r="B44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
+      <c r="B45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
+      <c r="B47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
+      <c r="B48" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="36"/>
+      <c r="B49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="36"/>
+      <c r="B50" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
+      <c r="B51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
+      <c r="B52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
+      <c r="B53" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="36"/>
+      <c r="B54" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="36"/>
+      <c r="B55" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
+      <c r="B56" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="36"/>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="36"/>
+      <c r="B58" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="13"/>
+      <c r="F69" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="14"/>
+      <c r="F70" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="15"/>
+      <c r="F71" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="19"/>
+      <c r="F72" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A34:F35"/>
     <mergeCell ref="A37:A58"/>
+    <mergeCell ref="A60:F61"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Daily Health Checkup/EQUIP and EWS oozie jobs status dashboard report - July 2020.xlsx
+++ b/Daily Health Checkup/EQUIP and EWS oozie jobs status dashboard report - July 2020.xlsx
@@ -9,13 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="July 01" sheetId="1" r:id="rId1"/>
     <sheet name="July 02" sheetId="2" r:id="rId2"/>
     <sheet name="July 03" sheetId="3" r:id="rId3"/>
+    <sheet name="July 06" sheetId="4" r:id="rId4"/>
+    <sheet name="July 07" sheetId="6" r:id="rId5"/>
+    <sheet name="July 08" sheetId="7" r:id="rId6"/>
+    <sheet name="July 09" sheetId="8" r:id="rId7"/>
+    <sheet name="July 10" sheetId="9" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'July 08'!$A$3:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'July 09'!$A$3:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'July 10'!$A$3:$F$32</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="134">
   <si>
     <t>Daily Equip Oozie jobs status Dashboard Report</t>
   </si>
@@ -425,6 +435,21 @@
   </si>
   <si>
     <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>EWS-DRIVE-prjct-Solr-Indexing-Daily-Stg-wf</t>
+  </si>
+  <si>
+    <t>EWS-DRIVE-tr-Solr-Indexing-Daily-Stg-wf</t>
+  </si>
+  <si>
+    <t>WAITING</t>
+  </si>
+  <si>
+    <t>Failed to send Success mail</t>
+  </si>
+  <si>
+    <t>FAILED long time back</t>
   </si>
 </sst>
 </file>
@@ -682,7 +707,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -729,6 +754,25 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -754,6 +798,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,22 +1109,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1097,7 +1147,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1113,7 +1163,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1127,7 +1177,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +1191,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1155,7 +1205,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1171,7 +1221,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1185,7 +1235,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1199,7 +1249,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1229,7 +1279,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1245,7 +1295,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
@@ -1259,7 +1309,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1275,7 +1325,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
@@ -1289,7 +1339,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1303,7 +1353,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1317,7 +1367,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1333,7 +1383,7 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
@@ -1379,7 +1429,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="37" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1395,7 +1445,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="3" t="s">
         <v>56</v>
       </c>
@@ -1409,7 +1459,7 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="3" t="s">
         <v>58</v>
       </c>
@@ -1423,7 +1473,7 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="3" t="s">
         <v>59</v>
       </c>
@@ -1469,7 +1519,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="37" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1485,7 +1535,7 @@
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="3" t="s">
         <v>67</v>
       </c>
@@ -1500,22 +1550,22 @@
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1538,7 +1588,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="35" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1554,7 +1604,7 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="3" t="s">
         <v>106</v>
       </c>
@@ -1568,7 +1618,7 @@
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="3" t="s">
         <v>108</v>
       </c>
@@ -1578,7 +1628,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="19" t="s">
         <v>72</v>
       </c>
@@ -1592,7 +1642,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="13" t="s">
         <v>104</v>
       </c>
@@ -1606,7 +1656,7 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -1620,7 +1670,7 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
@@ -1634,7 +1684,7 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="3" t="s">
         <v>78</v>
       </c>
@@ -1648,7 +1698,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="19" t="s">
         <v>80</v>
       </c>
@@ -1662,7 +1712,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="3" t="s">
         <v>82</v>
       </c>
@@ -1676,7 +1726,7 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="3" t="s">
         <v>84</v>
       </c>
@@ -1690,7 +1740,7 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="13" t="s">
         <v>86</v>
       </c>
@@ -1704,7 +1754,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="19" t="s">
         <v>88</v>
       </c>
@@ -1718,7 +1768,7 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="3" t="s">
         <v>90</v>
       </c>
@@ -1732,7 +1782,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="3" t="s">
         <v>92</v>
       </c>
@@ -1746,7 +1796,7 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="19" t="s">
         <v>94</v>
       </c>
@@ -1760,7 +1810,7 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="3" t="s">
         <v>96</v>
       </c>
@@ -1774,7 +1824,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="3" t="s">
         <v>98</v>
       </c>
@@ -1788,7 +1838,7 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="3" t="s">
         <v>100</v>
       </c>
@@ -1802,7 +1852,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="3" t="s">
         <v>102</v>
       </c>
@@ -1880,22 +1930,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -1918,7 +1968,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1934,7 +1984,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1948,7 +1998,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="37" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1964,7 +2014,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="20" t="s">
         <v>22</v>
       </c>
@@ -1978,7 +2028,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1992,7 +2042,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -2006,7 +2056,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -2022,7 +2072,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
@@ -2036,7 +2086,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -2050,7 +2100,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
@@ -2080,7 +2130,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="37" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -2098,7 +2148,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
@@ -2112,7 +2162,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="3" t="s">
         <v>126</v>
       </c>
@@ -2126,7 +2176,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2142,7 +2192,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="20" t="s">
         <v>44</v>
       </c>
@@ -2172,7 +2222,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="37" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2188,7 +2238,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
@@ -2202,7 +2252,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
@@ -2216,7 +2266,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
@@ -2246,7 +2296,7 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="37" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2262,7 +2312,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="20" t="s">
         <v>64</v>
       </c>
@@ -2276,7 +2326,7 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2292,7 +2342,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -2306,7 +2356,7 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -2320,7 +2370,7 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
@@ -2353,22 +2403,22 @@
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="41"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2391,7 +2441,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="42" t="s">
         <v>121</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2407,7 +2457,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="3" t="s">
         <v>106</v>
       </c>
@@ -2421,7 +2471,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="3" t="s">
         <v>108</v>
       </c>
@@ -2433,7 +2483,7 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="3" t="s">
         <v>116</v>
       </c>
@@ -2445,7 +2495,7 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="16" t="s">
         <v>117</v>
       </c>
@@ -2457,7 +2507,7 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="19" t="s">
         <v>72</v>
       </c>
@@ -2471,7 +2521,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="20" t="s">
         <v>104</v>
       </c>
@@ -2485,7 +2535,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="3" t="s">
         <v>74</v>
       </c>
@@ -2499,7 +2549,7 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="3" t="s">
         <v>76</v>
       </c>
@@ -2513,7 +2563,7 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="3" t="s">
         <v>78</v>
       </c>
@@ -2527,7 +2577,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="19" t="s">
         <v>80</v>
       </c>
@@ -2541,7 +2591,7 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="16" t="s">
         <v>82</v>
       </c>
@@ -2555,7 +2605,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="3" t="s">
         <v>84</v>
       </c>
@@ -2569,7 +2619,7 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="20" t="s">
         <v>86</v>
       </c>
@@ -2583,7 +2633,7 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="19" t="s">
         <v>88</v>
       </c>
@@ -2597,7 +2647,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="3" t="s">
         <v>90</v>
       </c>
@@ -2611,7 +2661,7 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="16" t="s">
         <v>92</v>
       </c>
@@ -2625,7 +2675,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="21" t="s">
         <v>94</v>
       </c>
@@ -2639,7 +2689,7 @@
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="20" t="s">
         <v>96</v>
       </c>
@@ -2653,7 +2703,7 @@
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="13" t="s">
         <v>98</v>
       </c>
@@ -2666,7 +2716,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="3" t="s">
         <v>100</v>
       </c>
@@ -2679,7 +2729,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="20" t="s">
         <v>102</v>
       </c>
@@ -2692,22 +2742,22 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="41"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="41"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2773,11 +2823,6 @@
     <sortCondition ref="B4:B30"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A60:F61"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A34:F35"/>
-    <mergeCell ref="A37:A58"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A4:A5"/>
@@ -2785,6 +2830,11 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A60:F61"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A37:A58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -2796,7 +2846,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2812,22 +2862,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -2850,7 +2900,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2866,7 +2916,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
@@ -2880,7 +2930,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="37" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2896,7 +2946,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="20" t="s">
         <v>22</v>
       </c>
@@ -2910,7 +2960,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -2924,7 +2974,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -2938,7 +2988,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -2954,7 +3004,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
@@ -2968,7 +3018,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -2982,7 +3032,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
@@ -3012,7 +3062,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="37" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -3030,7 +3080,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
@@ -3044,7 +3094,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="3" t="s">
         <v>126</v>
       </c>
@@ -3058,7 +3108,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3074,7 +3124,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="20" t="s">
         <v>44</v>
       </c>
@@ -3104,7 +3154,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="37" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3120,7 +3170,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
@@ -3134,7 +3184,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
@@ -3148,7 +3198,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
@@ -3178,7 +3228,7 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="37" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3194,7 +3244,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="20" t="s">
         <v>64</v>
       </c>
@@ -3208,7 +3258,7 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3224,7 +3274,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -3238,7 +3288,7 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -3252,7 +3302,7 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
@@ -3285,22 +3335,22 @@
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="41"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -3323,7 +3373,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="42" t="s">
         <v>121</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -3339,7 +3389,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="3" t="s">
         <v>106</v>
       </c>
@@ -3353,7 +3403,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="3" t="s">
         <v>108</v>
       </c>
@@ -3365,7 +3415,7 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="3" t="s">
         <v>116</v>
       </c>
@@ -3377,7 +3427,7 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="16" t="s">
         <v>117</v>
       </c>
@@ -3389,7 +3439,7 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="19" t="s">
         <v>72</v>
       </c>
@@ -3403,7 +3453,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="8" t="s">
         <v>104</v>
       </c>
@@ -3417,7 +3467,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="3" t="s">
         <v>74</v>
       </c>
@@ -3431,7 +3481,7 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="3" t="s">
         <v>76</v>
       </c>
@@ -3445,7 +3495,7 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="3" t="s">
         <v>78</v>
       </c>
@@ -3459,7 +3509,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="19" t="s">
         <v>80</v>
       </c>
@@ -3473,7 +3523,7 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="16" t="s">
         <v>82</v>
       </c>
@@ -3487,7 +3537,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="3" t="s">
         <v>84</v>
       </c>
@@ -3501,7 +3551,7 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="20" t="s">
         <v>86</v>
       </c>
@@ -3515,7 +3565,7 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="19" t="s">
         <v>88</v>
       </c>
@@ -3529,7 +3579,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="3" t="s">
         <v>90</v>
       </c>
@@ -3543,7 +3593,7 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="16" t="s">
         <v>92</v>
       </c>
@@ -3557,7 +3607,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="21" t="s">
         <v>94</v>
       </c>
@@ -3571,7 +3621,7 @@
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="20" t="s">
         <v>96</v>
       </c>
@@ -3585,7 +3635,7 @@
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="13" t="s">
         <v>98</v>
       </c>
@@ -3598,7 +3648,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="3" t="s">
         <v>100</v>
       </c>
@@ -3611,7 +3661,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="20" t="s">
         <v>102</v>
       </c>
@@ -3624,22 +3674,22 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="41"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="41"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -3673,6 +3723,4686 @@
       </c>
       <c r="E63" s="18" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="13"/>
+      <c r="F69" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="14"/>
+      <c r="F70" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="15"/>
+      <c r="F71" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="19"/>
+      <c r="F72" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A60:F61"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A37:A58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="45"/>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="45"/>
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="45"/>
+      <c r="B41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="45"/>
+      <c r="B42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45"/>
+      <c r="B43" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="45"/>
+      <c r="B44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45"/>
+      <c r="B45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="45"/>
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
+      <c r="B47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="45"/>
+      <c r="B48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
+      <c r="B49" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45"/>
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45"/>
+      <c r="B51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="45"/>
+      <c r="B52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="45"/>
+      <c r="B53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="45"/>
+      <c r="B54" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="45"/>
+      <c r="B55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="45"/>
+      <c r="B56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="45"/>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="45"/>
+      <c r="B58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="69" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="13"/>
+      <c r="F69" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="14"/>
+      <c r="F70" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="15"/>
+      <c r="F71" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="19"/>
+      <c r="F72" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A60:F61"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A37:A58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="45"/>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="45"/>
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="45"/>
+      <c r="B41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="45"/>
+      <c r="B42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45"/>
+      <c r="B43" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="45"/>
+      <c r="B44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45"/>
+      <c r="B45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="45"/>
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
+      <c r="B47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="45"/>
+      <c r="B48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
+      <c r="B49" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45"/>
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45"/>
+      <c r="B51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="45"/>
+      <c r="B52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="45"/>
+      <c r="B53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="45"/>
+      <c r="B54" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="45"/>
+      <c r="B55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="45"/>
+      <c r="B56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="45"/>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="45"/>
+      <c r="B58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="69" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="13"/>
+      <c r="F69" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="14"/>
+      <c r="F70" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="15"/>
+      <c r="F71" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="19"/>
+      <c r="F72" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A60:F61"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A37:A58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="45"/>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="45"/>
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="45"/>
+      <c r="B41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="45"/>
+      <c r="B42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45"/>
+      <c r="B43" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="45"/>
+      <c r="B44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45"/>
+      <c r="B45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="45"/>
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
+      <c r="B47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="45"/>
+      <c r="B48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
+      <c r="B49" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45"/>
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45"/>
+      <c r="B51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="45"/>
+      <c r="B52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="45"/>
+      <c r="B53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="45"/>
+      <c r="B54" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="45"/>
+      <c r="B55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="45"/>
+      <c r="B56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="45"/>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="45"/>
+      <c r="B58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="13"/>
+      <c r="F69" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="14"/>
+      <c r="F70" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="15"/>
+      <c r="F71" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="19"/>
+      <c r="F72" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A60:F61"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A37:A58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="45"/>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="45"/>
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="45"/>
+      <c r="B41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="45"/>
+      <c r="B42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45"/>
+      <c r="B43" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="45"/>
+      <c r="B44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45"/>
+      <c r="B45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="45"/>
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
+      <c r="B47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="45"/>
+      <c r="B48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
+      <c r="B49" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45"/>
+      <c r="B50" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45"/>
+      <c r="B51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="45"/>
+      <c r="B52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="45"/>
+      <c r="B53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="45"/>
+      <c r="B54" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="45"/>
+      <c r="B55" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="45"/>
+      <c r="B56" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="45"/>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="45"/>
+      <c r="B58" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="13"/>
+      <c r="F69" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="14"/>
+      <c r="F70" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="15"/>
+      <c r="F71" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="19"/>
+      <c r="F72" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A60:F61"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A37:A58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="45"/>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="45"/>
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="45"/>
+      <c r="B41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="45"/>
+      <c r="B42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45"/>
+      <c r="B43" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="45"/>
+      <c r="B44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45"/>
+      <c r="B45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="45"/>
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
+      <c r="B47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="45"/>
+      <c r="B48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
+      <c r="B49" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45"/>
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45"/>
+      <c r="B51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="45"/>
+      <c r="B52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="45"/>
+      <c r="B53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="45"/>
+      <c r="B54" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="45"/>
+      <c r="B55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="45"/>
+      <c r="B56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="45"/>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="45"/>
+      <c r="B58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/Daily Health Checkup/EQUIP and EWS oozie jobs status dashboard report - July 2020.xlsx
+++ b/Daily Health Checkup/EQUIP and EWS oozie jobs status dashboard report - July 2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="July 01" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,21 @@
     <sheet name="July 08" sheetId="7" r:id="rId6"/>
     <sheet name="July 09" sheetId="8" r:id="rId7"/>
     <sheet name="July 10" sheetId="9" r:id="rId8"/>
+    <sheet name="July 13" sheetId="10" r:id="rId9"/>
+    <sheet name="July 14" sheetId="11" r:id="rId10"/>
+    <sheet name="July 15" sheetId="12" r:id="rId11"/>
+    <sheet name="July 16" sheetId="13" r:id="rId12"/>
+    <sheet name="July 17" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'July 08'!$A$3:$F$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'July 09'!$A$3:$F$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'July 10'!$A$3:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'July 13'!$A$3:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'July 14'!$A$3:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'July 15'!$A$3:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'July 16'!$A$3:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'July 17'!$A$3:$F$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="137">
   <si>
     <t>Daily Equip Oozie jobs status Dashboard Report</t>
   </si>
@@ -450,6 +460,15 @@
   </si>
   <si>
     <t>FAILED long time back</t>
+  </si>
+  <si>
+    <t>Weekly job named as daily</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>EQUIP-AVES-Condense-Weekly-BDE-PRD-wf</t>
   </si>
 </sst>
 </file>
@@ -707,7 +726,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -761,6 +780,22 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,22 +1144,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1147,7 +1182,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1163,7 +1198,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1177,7 +1212,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1191,7 +1226,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1240,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="43" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1221,7 +1256,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1235,7 +1270,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1249,7 +1284,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1279,7 +1314,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1295,7 +1330,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
@@ -1309,7 +1344,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1325,7 +1360,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
@@ -1339,7 +1374,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1353,7 +1388,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1367,7 +1402,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1383,7 +1418,7 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
@@ -1429,7 +1464,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="43" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1445,7 +1480,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="3" t="s">
         <v>56</v>
       </c>
@@ -1459,7 +1494,7 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="3" t="s">
         <v>58</v>
       </c>
@@ -1473,7 +1508,7 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="3" t="s">
         <v>59</v>
       </c>
@@ -1519,7 +1554,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="43" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1535,7 +1570,7 @@
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>67</v>
       </c>
@@ -1550,22 +1585,22 @@
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1588,7 +1623,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="41" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1604,7 +1639,7 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="3" t="s">
         <v>106</v>
       </c>
@@ -1618,7 +1653,7 @@
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="3" t="s">
         <v>108</v>
       </c>
@@ -1628,7 +1663,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="19" t="s">
         <v>72</v>
       </c>
@@ -1642,7 +1677,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="13" t="s">
         <v>104</v>
       </c>
@@ -1656,7 +1691,7 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -1670,7 +1705,7 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
@@ -1684,7 +1719,7 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="3" t="s">
         <v>78</v>
       </c>
@@ -1698,7 +1733,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="19" t="s">
         <v>80</v>
       </c>
@@ -1712,7 +1747,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="3" t="s">
         <v>82</v>
       </c>
@@ -1726,7 +1761,7 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="3" t="s">
         <v>84</v>
       </c>
@@ -1740,7 +1775,7 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="13" t="s">
         <v>86</v>
       </c>
@@ -1754,7 +1789,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="19" t="s">
         <v>88</v>
       </c>
@@ -1768,7 +1803,7 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="3" t="s">
         <v>90</v>
       </c>
@@ -1782,7 +1817,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="3" t="s">
         <v>92</v>
       </c>
@@ -1796,7 +1831,7 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="19" t="s">
         <v>94</v>
       </c>
@@ -1810,7 +1845,7 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
+      <c r="A51" s="42"/>
       <c r="B51" s="3" t="s">
         <v>96</v>
       </c>
@@ -1824,7 +1859,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="3" t="s">
         <v>98</v>
       </c>
@@ -1838,7 +1873,7 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="3" t="s">
         <v>100</v>
       </c>
@@ -1852,7 +1887,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="3" t="s">
         <v>102</v>
       </c>
@@ -1903,6 +1938,3783 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="51"/>
+      <c r="B53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="51"/>
+      <c r="B54" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="51"/>
+      <c r="B55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="51"/>
+      <c r="B58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="13"/>
+      <c r="F69" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="14"/>
+      <c r="F70" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="15"/>
+      <c r="F71" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="19"/>
+      <c r="F72" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A60:F61"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A37:A58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="51"/>
+      <c r="B53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="51"/>
+      <c r="B54" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="51"/>
+      <c r="B55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="51"/>
+      <c r="B58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="13"/>
+      <c r="F69" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="14"/>
+      <c r="F70" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="15"/>
+      <c r="F71" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="19"/>
+      <c r="F72" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A60:F61"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A37:A58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="51"/>
+      <c r="B53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="51"/>
+      <c r="B54" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="51"/>
+      <c r="B55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="51"/>
+      <c r="B58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="13"/>
+      <c r="F69" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="14"/>
+      <c r="F70" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="15"/>
+      <c r="F71" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="19"/>
+      <c r="F72" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A60:F61"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A37:A58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="51"/>
+      <c r="B53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="51"/>
+      <c r="B54" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="51"/>
+      <c r="B55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="51"/>
+      <c r="B58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="13"/>
+      <c r="F69" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="14"/>
+      <c r="F70" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="15"/>
+      <c r="F71" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="19"/>
+      <c r="F72" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A37:A58"/>
+    <mergeCell ref="A60:F61"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -1930,22 +5742,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -1968,7 +5780,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1984,7 +5796,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1998,7 +5810,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="43" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2014,7 +5826,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="20" t="s">
         <v>22</v>
       </c>
@@ -2028,7 +5840,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -2042,7 +5854,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -2056,7 +5868,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -2072,7 +5884,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
@@ -2086,7 +5898,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -2100,7 +5912,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
@@ -2130,7 +5942,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="43" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -2148,7 +5960,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
@@ -2162,7 +5974,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="3" t="s">
         <v>126</v>
       </c>
@@ -2176,7 +5988,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2192,7 +6004,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="20" t="s">
         <v>44</v>
       </c>
@@ -2222,7 +6034,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="43" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2238,7 +6050,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
@@ -2252,7 +6064,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
@@ -2266,7 +6078,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
@@ -2296,7 +6108,7 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="43" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2312,7 +6124,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="20" t="s">
         <v>64</v>
       </c>
@@ -2326,7 +6138,7 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2342,7 +6154,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -2356,7 +6168,7 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -2370,7 +6182,7 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
@@ -2403,22 +6215,22 @@
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="47"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="41"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2441,7 +6253,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="48" t="s">
         <v>121</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2457,7 +6269,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="3" t="s">
         <v>106</v>
       </c>
@@ -2471,7 +6283,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="3" t="s">
         <v>108</v>
       </c>
@@ -2483,7 +6295,7 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="3" t="s">
         <v>116</v>
       </c>
@@ -2495,7 +6307,7 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="16" t="s">
         <v>117</v>
       </c>
@@ -2507,7 +6319,7 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="19" t="s">
         <v>72</v>
       </c>
@@ -2521,7 +6333,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="20" t="s">
         <v>104</v>
       </c>
@@ -2535,7 +6347,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="3" t="s">
         <v>74</v>
       </c>
@@ -2549,7 +6361,7 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="3" t="s">
         <v>76</v>
       </c>
@@ -2563,7 +6375,7 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="3" t="s">
         <v>78</v>
       </c>
@@ -2577,7 +6389,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="19" t="s">
         <v>80</v>
       </c>
@@ -2591,7 +6403,7 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="16" t="s">
         <v>82</v>
       </c>
@@ -2605,7 +6417,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="3" t="s">
         <v>84</v>
       </c>
@@ -2619,7 +6431,7 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="20" t="s">
         <v>86</v>
       </c>
@@ -2633,7 +6445,7 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="19" t="s">
         <v>88</v>
       </c>
@@ -2647,7 +6459,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="3" t="s">
         <v>90</v>
       </c>
@@ -2661,7 +6473,7 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="16" t="s">
         <v>92</v>
       </c>
@@ -2675,7 +6487,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="21" t="s">
         <v>94</v>
       </c>
@@ -2689,7 +6501,7 @@
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="20" t="s">
         <v>96</v>
       </c>
@@ -2703,7 +6515,7 @@
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="13" t="s">
         <v>98</v>
       </c>
@@ -2716,7 +6528,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="3" t="s">
         <v>100</v>
       </c>
@@ -2729,7 +6541,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="20" t="s">
         <v>102</v>
       </c>
@@ -2742,22 +6554,22 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="41"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="47"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="41"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="47"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2862,22 +6674,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -2900,7 +6712,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2916,7 +6728,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
@@ -2930,7 +6742,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="43" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2946,7 +6758,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="20" t="s">
         <v>22</v>
       </c>
@@ -2960,7 +6772,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -2974,7 +6786,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -2988,7 +6800,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -3004,7 +6816,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
@@ -3018,7 +6830,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -3032,7 +6844,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
@@ -3062,7 +6874,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="43" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -3080,7 +6892,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
@@ -3094,7 +6906,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="3" t="s">
         <v>126</v>
       </c>
@@ -3108,7 +6920,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3124,7 +6936,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="20" t="s">
         <v>44</v>
       </c>
@@ -3154,7 +6966,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="43" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3170,7 +6982,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
@@ -3184,7 +6996,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
@@ -3198,7 +7010,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
@@ -3228,7 +7040,7 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="43" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3244,7 +7056,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="20" t="s">
         <v>64</v>
       </c>
@@ -3258,7 +7070,7 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3274,7 +7086,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -3288,7 +7100,7 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -3302,7 +7114,7 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
@@ -3335,22 +7147,22 @@
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="47"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="41"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -3373,7 +7185,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="48" t="s">
         <v>121</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -3389,7 +7201,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="3" t="s">
         <v>106</v>
       </c>
@@ -3403,7 +7215,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="3" t="s">
         <v>108</v>
       </c>
@@ -3415,7 +7227,7 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="3" t="s">
         <v>116</v>
       </c>
@@ -3427,7 +7239,7 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="16" t="s">
         <v>117</v>
       </c>
@@ -3439,7 +7251,7 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="19" t="s">
         <v>72</v>
       </c>
@@ -3453,7 +7265,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="8" t="s">
         <v>104</v>
       </c>
@@ -3467,7 +7279,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="3" t="s">
         <v>74</v>
       </c>
@@ -3481,7 +7293,7 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="3" t="s">
         <v>76</v>
       </c>
@@ -3495,7 +7307,7 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="3" t="s">
         <v>78</v>
       </c>
@@ -3509,7 +7321,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="19" t="s">
         <v>80</v>
       </c>
@@ -3523,7 +7335,7 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="16" t="s">
         <v>82</v>
       </c>
@@ -3537,7 +7349,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="3" t="s">
         <v>84</v>
       </c>
@@ -3551,7 +7363,7 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="20" t="s">
         <v>86</v>
       </c>
@@ -3565,7 +7377,7 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="19" t="s">
         <v>88</v>
       </c>
@@ -3579,7 +7391,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="3" t="s">
         <v>90</v>
       </c>
@@ -3593,7 +7405,7 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="16" t="s">
         <v>92</v>
       </c>
@@ -3607,7 +7419,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="21" t="s">
         <v>94</v>
       </c>
@@ -3621,7 +7433,7 @@
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="20" t="s">
         <v>96</v>
       </c>
@@ -3635,7 +7447,7 @@
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="13" t="s">
         <v>98</v>
       </c>
@@ -3648,7 +7460,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="3" t="s">
         <v>100</v>
       </c>
@@ -3661,7 +7473,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="20" t="s">
         <v>102</v>
       </c>
@@ -3674,22 +7486,22 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="41"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="47"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="41"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="47"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -3771,6 +7583,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -3789,22 +7602,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -3827,7 +7640,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3843,7 +7656,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
@@ -3857,7 +7670,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="51" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3873,7 +7686,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -3887,7 +7700,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -3901,7 +7714,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
@@ -3915,7 +7728,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -3931,7 +7744,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
@@ -3945,7 +7758,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -3959,7 +7772,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
@@ -3989,7 +7802,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -4005,7 +7818,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
@@ -4019,7 +7832,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="3" t="s">
         <v>126</v>
       </c>
@@ -4033,7 +7846,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4049,7 +7862,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -4079,7 +7892,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4095,7 +7908,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
@@ -4109,7 +7922,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
@@ -4123,7 +7936,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
@@ -4153,7 +7966,7 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="51" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -4169,7 +7982,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="3" t="s">
         <v>64</v>
       </c>
@@ -4183,7 +7996,7 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -4199,7 +8012,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -4213,7 +8026,7 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -4227,7 +8040,7 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
@@ -4260,22 +8073,22 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
@@ -4298,7 +8111,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="51" t="s">
         <v>121</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -4314,7 +8127,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="3" t="s">
         <v>106</v>
       </c>
@@ -4328,7 +8141,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="3" t="s">
         <v>108</v>
       </c>
@@ -4340,7 +8153,7 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="3" t="s">
         <v>116</v>
       </c>
@@ -4354,7 +8167,7 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="3" t="s">
         <v>117</v>
       </c>
@@ -4368,7 +8181,7 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="19" t="s">
         <v>72</v>
       </c>
@@ -4382,7 +8195,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="20" t="s">
         <v>104</v>
       </c>
@@ -4396,7 +8209,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="3" t="s">
         <v>74</v>
       </c>
@@ -4410,7 +8223,7 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="3" t="s">
         <v>76</v>
       </c>
@@ -4424,7 +8237,7 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="3" t="s">
         <v>78</v>
       </c>
@@ -4438,7 +8251,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="19" t="s">
         <v>80</v>
       </c>
@@ -4452,7 +8265,7 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
@@ -4466,7 +8279,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="19" t="s">
         <v>84</v>
       </c>
@@ -4480,7 +8293,7 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="3" t="s">
         <v>86</v>
       </c>
@@ -4494,7 +8307,7 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="19" t="s">
         <v>88</v>
       </c>
@@ -4508,7 +8321,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="3" t="s">
         <v>90</v>
       </c>
@@ -4522,7 +8335,7 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="3" t="s">
         <v>92</v>
       </c>
@@ -4536,7 +8349,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="19" t="s">
         <v>94</v>
       </c>
@@ -4550,7 +8363,7 @@
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="3" t="s">
         <v>96</v>
       </c>
@@ -4564,7 +8377,7 @@
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="3" t="s">
         <v>98</v>
       </c>
@@ -4578,7 +8391,7 @@
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="3" t="s">
         <v>100</v>
       </c>
@@ -4592,7 +8405,7 @@
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="3" t="s">
         <v>102</v>
       </c>
@@ -4606,22 +8419,22 @@
       <c r="F58" s="5"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
@@ -4705,6 +8518,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -4723,22 +8537,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -4761,7 +8575,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4777,7 +8591,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
@@ -4791,7 +8605,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="51" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -4807,7 +8621,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -4821,7 +8635,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -4835,7 +8649,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -4849,7 +8663,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -4865,7 +8679,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
@@ -4879,7 +8693,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -4893,7 +8707,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
@@ -4923,7 +8737,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -4939,7 +8753,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
@@ -4953,7 +8767,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="3" t="s">
         <v>126</v>
       </c>
@@ -4967,7 +8781,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4983,7 +8797,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -5013,7 +8827,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -5029,7 +8843,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
@@ -5043,7 +8857,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
@@ -5057,7 +8871,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
@@ -5087,7 +8901,7 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="51" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -5103,7 +8917,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="20" t="s">
         <v>64</v>
       </c>
@@ -5117,7 +8931,7 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -5133,7 +8947,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -5147,7 +8961,7 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -5161,7 +8975,7 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
@@ -5194,22 +9008,22 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
@@ -5232,7 +9046,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="51" t="s">
         <v>121</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -5248,7 +9062,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="3" t="s">
         <v>106</v>
       </c>
@@ -5262,7 +9076,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="3" t="s">
         <v>108</v>
       </c>
@@ -5274,7 +9088,7 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="3" t="s">
         <v>116</v>
       </c>
@@ -5288,7 +9102,7 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="3" t="s">
         <v>117</v>
       </c>
@@ -5302,7 +9116,7 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="19" t="s">
         <v>72</v>
       </c>
@@ -5316,7 +9130,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="20" t="s">
         <v>104</v>
       </c>
@@ -5330,7 +9144,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="3" t="s">
         <v>74</v>
       </c>
@@ -5344,7 +9158,7 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="3" t="s">
         <v>76</v>
       </c>
@@ -5358,7 +9172,7 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="3" t="s">
         <v>78</v>
       </c>
@@ -5372,7 +9186,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="19" t="s">
         <v>80</v>
       </c>
@@ -5386,7 +9200,7 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
@@ -5400,7 +9214,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="19" t="s">
         <v>84</v>
       </c>
@@ -5414,7 +9228,7 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="3" t="s">
         <v>86</v>
       </c>
@@ -5428,7 +9242,7 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="19" t="s">
         <v>88</v>
       </c>
@@ -5442,7 +9256,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="3" t="s">
         <v>90</v>
       </c>
@@ -5456,7 +9270,7 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="3" t="s">
         <v>92</v>
       </c>
@@ -5470,7 +9284,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="19" t="s">
         <v>94</v>
       </c>
@@ -5484,7 +9298,7 @@
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="3" t="s">
         <v>96</v>
       </c>
@@ -5498,7 +9312,7 @@
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="3" t="s">
         <v>98</v>
       </c>
@@ -5512,7 +9326,7 @@
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="3" t="s">
         <v>100</v>
       </c>
@@ -5526,7 +9340,7 @@
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="3" t="s">
         <v>102</v>
       </c>
@@ -5540,22 +9354,22 @@
       <c r="F58" s="5"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
@@ -5639,6 +9453,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5657,22 +9472,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -5695,7 +9510,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -5711,7 +9526,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
@@ -5725,7 +9540,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="51" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -5741,7 +9556,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -5755,7 +9570,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -5769,7 +9584,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
@@ -5783,7 +9598,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -5799,7 +9614,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
@@ -5813,7 +9628,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -5827,7 +9642,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
@@ -5857,7 +9672,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -5873,7 +9688,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
@@ -5887,7 +9702,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="3" t="s">
         <v>126</v>
       </c>
@@ -5901,7 +9716,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -5917,7 +9732,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -5947,7 +9762,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -5963,7 +9778,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
@@ -5977,7 +9792,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
@@ -5991,7 +9806,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
@@ -6021,7 +9836,7 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="51" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -6037,7 +9852,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="20" t="s">
         <v>64</v>
       </c>
@@ -6051,7 +9866,7 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -6067,7 +9882,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -6081,7 +9896,7 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -6095,7 +9910,7 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
@@ -6128,22 +9943,22 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
@@ -6166,7 +9981,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="51" t="s">
         <v>121</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -6182,7 +9997,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="3" t="s">
         <v>106</v>
       </c>
@@ -6196,7 +10011,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="3" t="s">
         <v>108</v>
       </c>
@@ -6208,7 +10023,7 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="3" t="s">
         <v>116</v>
       </c>
@@ -6222,7 +10037,7 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="3" t="s">
         <v>117</v>
       </c>
@@ -6236,7 +10051,7 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="19" t="s">
         <v>72</v>
       </c>
@@ -6250,7 +10065,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="20" t="s">
         <v>104</v>
       </c>
@@ -6264,7 +10079,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="3" t="s">
         <v>74</v>
       </c>
@@ -6278,7 +10093,7 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="3" t="s">
         <v>76</v>
       </c>
@@ -6292,7 +10107,7 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="3" t="s">
         <v>78</v>
       </c>
@@ -6306,7 +10121,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="19" t="s">
         <v>80</v>
       </c>
@@ -6320,7 +10135,7 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
@@ -6334,7 +10149,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="19" t="s">
         <v>84</v>
       </c>
@@ -6348,7 +10163,7 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="3" t="s">
         <v>86</v>
       </c>
@@ -6362,7 +10177,7 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="19" t="s">
         <v>88</v>
       </c>
@@ -6376,7 +10191,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="3" t="s">
         <v>90</v>
       </c>
@@ -6390,7 +10205,7 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="3" t="s">
         <v>92</v>
       </c>
@@ -6404,7 +10219,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="19" t="s">
         <v>94</v>
       </c>
@@ -6418,7 +10233,7 @@
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="3" t="s">
         <v>96</v>
       </c>
@@ -6432,7 +10247,7 @@
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="3" t="s">
         <v>98</v>
       </c>
@@ -6446,7 +10261,7 @@
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="3" t="s">
         <v>100</v>
       </c>
@@ -6460,7 +10275,7 @@
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="3" t="s">
         <v>102</v>
       </c>
@@ -6474,22 +10289,22 @@
       <c r="F58" s="5"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
@@ -6575,6 +10390,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6593,22 +10409,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -6631,7 +10447,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -6647,7 +10463,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="20" t="s">
         <v>31</v>
       </c>
@@ -6661,7 +10477,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="51" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -6677,7 +10493,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -6691,7 +10507,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -6705,7 +10521,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -6719,7 +10535,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -6735,7 +10551,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
@@ -6749,7 +10565,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -6763,7 +10579,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
@@ -6793,7 +10609,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -6809,7 +10625,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
@@ -6823,7 +10639,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="3" t="s">
         <v>126</v>
       </c>
@@ -6837,7 +10653,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -6853,7 +10669,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="20" t="s">
         <v>44</v>
       </c>
@@ -6883,7 +10699,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -6899,7 +10715,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
@@ -6913,7 +10729,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
@@ -6927,7 +10743,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
@@ -6957,7 +10773,7 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="51" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -6973,7 +10789,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="20" t="s">
         <v>64</v>
       </c>
@@ -6987,7 +10803,7 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -7003,7 +10819,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -7017,7 +10833,7 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -7031,7 +10847,7 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="20" t="s">
         <v>37</v>
       </c>
@@ -7064,22 +10880,22 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
@@ -7102,7 +10918,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="51" t="s">
         <v>121</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -7118,7 +10934,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="3" t="s">
         <v>106</v>
       </c>
@@ -7132,7 +10948,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="3" t="s">
         <v>108</v>
       </c>
@@ -7144,7 +10960,7 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="3" t="s">
         <v>116</v>
       </c>
@@ -7158,7 +10974,7 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="3" t="s">
         <v>117</v>
       </c>
@@ -7172,7 +10988,7 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="19" t="s">
         <v>72</v>
       </c>
@@ -7186,7 +11002,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="20" t="s">
         <v>104</v>
       </c>
@@ -7200,7 +11016,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="3" t="s">
         <v>74</v>
       </c>
@@ -7214,7 +11030,7 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="3" t="s">
         <v>76</v>
       </c>
@@ -7228,7 +11044,7 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="3" t="s">
         <v>78</v>
       </c>
@@ -7242,7 +11058,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="19" t="s">
         <v>80</v>
       </c>
@@ -7256,7 +11072,7 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
@@ -7270,7 +11086,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="19" t="s">
         <v>84</v>
       </c>
@@ -7284,7 +11100,7 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="20" t="s">
         <v>86</v>
       </c>
@@ -7298,7 +11114,7 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="19" t="s">
         <v>88</v>
       </c>
@@ -7312,7 +11128,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="3" t="s">
         <v>90</v>
       </c>
@@ -7326,7 +11142,7 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="3" t="s">
         <v>92</v>
       </c>
@@ -7340,7 +11156,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="19" t="s">
         <v>94</v>
       </c>
@@ -7354,7 +11170,7 @@
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="20" t="s">
         <v>96</v>
       </c>
@@ -7368,7 +11184,7 @@
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="20" t="s">
         <v>98</v>
       </c>
@@ -7382,7 +11198,7 @@
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="3" t="s">
         <v>100</v>
       </c>
@@ -7396,7 +11212,7 @@
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="20" t="s">
         <v>102</v>
       </c>
@@ -7410,22 +11226,22 @@
       <c r="F58" s="5"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
@@ -7511,9 +11327,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -7529,22 +11346,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -7567,7 +11384,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -7583,7 +11400,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
@@ -7597,7 +11414,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="51" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -7613,7 +11430,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -7627,7 +11444,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -7641,7 +11458,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -7655,7 +11472,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -7671,7 +11488,7 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
@@ -7685,7 +11502,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -7699,7 +11516,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
@@ -7731,7 +11548,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -7747,7 +11564,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
@@ -7761,7 +11578,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="3" t="s">
         <v>126</v>
       </c>
@@ -7775,7 +11592,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -7791,7 +11608,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -7821,7 +11638,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -7837,7 +11654,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
@@ -7851,7 +11668,7 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
@@ -7865,7 +11682,7 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
@@ -7895,7 +11712,7 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="51" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -7911,7 +11728,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="3" t="s">
         <v>64</v>
       </c>
@@ -7925,7 +11742,7 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -7941,7 +11758,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -7955,7 +11772,7 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -7969,7 +11786,7 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
@@ -8002,22 +11819,22 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
@@ -8040,7 +11857,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="51" t="s">
         <v>121</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -8056,7 +11873,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="3" t="s">
         <v>106</v>
       </c>
@@ -8070,7 +11887,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="3" t="s">
         <v>108</v>
       </c>
@@ -8082,7 +11899,7 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="3" t="s">
         <v>116</v>
       </c>
@@ -8096,7 +11913,7 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="3" t="s">
         <v>117</v>
       </c>
@@ -8110,7 +11927,7 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="19" t="s">
         <v>72</v>
       </c>
@@ -8124,7 +11941,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="13" t="s">
         <v>104</v>
       </c>
@@ -8138,7 +11955,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="3" t="s">
         <v>74</v>
       </c>
@@ -8152,7 +11969,7 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="3" t="s">
         <v>76</v>
       </c>
@@ -8166,7 +11983,7 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="3" t="s">
         <v>78</v>
       </c>
@@ -8180,7 +11997,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="19" t="s">
         <v>80</v>
       </c>
@@ -8194,7 +12011,7 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
@@ -8208,7 +12025,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="15" t="s">
         <v>84</v>
       </c>
@@ -8224,7 +12041,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="3" t="s">
         <v>86</v>
       </c>
@@ -8238,7 +12055,7 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="19" t="s">
         <v>88</v>
       </c>
@@ -8252,7 +12069,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="3" t="s">
         <v>90</v>
       </c>
@@ -8266,7 +12083,7 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="3" t="s">
         <v>92</v>
       </c>
@@ -8280,7 +12097,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="19" t="s">
         <v>94</v>
       </c>
@@ -8294,7 +12111,7 @@
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="3" t="s">
         <v>96</v>
       </c>
@@ -8308,7 +12125,7 @@
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="3" t="s">
         <v>98</v>
       </c>
@@ -8322,7 +12139,7 @@
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="3" t="s">
         <v>100</v>
       </c>
@@ -8336,7 +12153,7 @@
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="3" t="s">
         <v>102</v>
       </c>
@@ -8350,22 +12167,22 @@
       <c r="F58" s="5"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
@@ -8431,11 +12248,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A34:F35"/>
-    <mergeCell ref="A37:A58"/>
     <mergeCell ref="A60:F61"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:A5"/>
@@ -8443,6 +12255,956 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A37:A58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="51"/>
+      <c r="B53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="51"/>
+      <c r="B54" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="51"/>
+      <c r="B55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="51"/>
+      <c r="B58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="13"/>
+      <c r="F69" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="14"/>
+      <c r="F70" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="15"/>
+      <c r="F71" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="19"/>
+      <c r="F72" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A60:F61"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A37:A58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
